--- a/biology/Biologie cellulaire et moléculaire/Calu-3/Calu-3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Calu-3/Calu-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calu-3 est une lignée cellulaire de cancer du poumon humain utilisée comme modèle de cellules du système respiratoire. 
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle dérive de cellules prélevées en 1975 par Germain Trempe et Jorgen Fogh (du Memorial Sloan Kettering Cancer Center) à partir d'un épanchement pleural chez un patient masculin, blanc, de 25 ans victime d'un adénocarcinome pulmonaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dérive de cellules prélevées en 1975 par Germain Trempe et Jorgen Fogh (du Memorial Sloan Kettering Cancer Center) à partir d'un épanchement pleural chez un patient masculin, blanc, de 25 ans victime d'un adénocarcinome pulmonaire.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Caractéristiques et intérêts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette lignée cellulaire Calu-3 se développe en monocouche adhérente ;
 ses cellules surexpriment le gène ERBB2, conduisant à ErbB2/Her2 actif.
-Elles expriment aussi la CK7, l'occludine et la E-cadhérine[2] ;
-Les cellules Calu-3 sont aussi concernées par de grandes quantités de régulateur de conductance transmembranaire de la fibrose kystique[3].</t>
+Elles expriment aussi la CK7, l'occludine et la E-cadhérine ;
+Les cellules Calu-3 sont aussi concernées par de grandes quantités de régulateur de conductance transmembranaire de la fibrose kystique.</t>
         </is>
       </c>
     </row>
@@ -575,13 +591,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces cellules ont été utilisées pour :
-étudier l'administration pulmonaire de médicaments, elles ont montré qu'elles pouvaient ingérer des substances de faible poids moléculaire[4].
-modéliser la respiration la prise d'air et certains types de lésions pulmonaires liées à l'inhalation de substances étrangères[1].
-étudier la sécrétion d'ions chlorure par les cellules épithéliales pulmonaires[3].
-des applications de criblage à haut débit axées sur l'intégrité de la barrière et l'expression des protéines de surface des cellules pulmonaires[5].</t>
+étudier l'administration pulmonaire de médicaments, elles ont montré qu'elles pouvaient ingérer des substances de faible poids moléculaire.
+modéliser la respiration la prise d'air et certains types de lésions pulmonaires liées à l'inhalation de substances étrangères.
+étudier la sécrétion d'ions chlorure par les cellules épithéliales pulmonaires.
+des applications de criblage à haut débit axées sur l'intégrité de la barrière et l'expression des protéines de surface des cellules pulmonaires.</t>
         </is>
       </c>
     </row>
